--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>3806800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>13567900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>13567900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>8174900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>8174900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3443400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>3443400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4407400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>4407400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4071100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>4071100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4493000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>4493000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3356700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>3356700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5938600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,41 @@
         <v>5938600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3947800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43438,6 +43438,41 @@
         <v>3947800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>7588400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,41 @@
         <v>7588400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4772000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43508,6 +43508,41 @@
         <v>4772000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>6614600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,76 @@
         <v>6614600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>6258900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>8373900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,76 @@
         <v>8373900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>5564900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7516600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,41 @@
         <v>7516600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>6243700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43718,6 +43718,41 @@
         <v>6243700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>8038800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>8038800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>5609600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>5609600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8323600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43823,6 +43823,76 @@
         <v>8323600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>6325100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>9126900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43893,6 +43893,41 @@
         <v>9126900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>7082100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43928,6 +43928,41 @@
         <v>7082100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>8344500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2205"/>
+  <dimension ref="A1:I2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77703,6 +77703,41 @@
         <v>8344500</v>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>7073500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2206"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77738,6 +77738,41 @@
         <v>7073500</v>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>9934300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77773,6 +77773,41 @@
         <v>9934300</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>8777600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2208"/>
+  <dimension ref="A1:I2209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77808,6 +77808,41 @@
         <v>8777600</v>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>10060700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2209"/>
+  <dimension ref="A1:I2210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77843,6 +77843,41 @@
         <v>10060700</v>
       </c>
     </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2210" t="n">
+        <v>10562200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2210"/>
+  <dimension ref="A1:I2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77878,6 +77878,41 @@
         <v>10562200</v>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>10135900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2211"/>
+  <dimension ref="A1:I2212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77913,6 +77913,41 @@
         <v>10135900</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>11186600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77948,6 +77948,41 @@
         <v>11186600</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>10626900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2213"/>
+  <dimension ref="A1:I2214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77983,6 +77983,41 @@
         <v>10626900</v>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>10735000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2214"/>
+  <dimension ref="A1:I2215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78018,6 +78018,41 @@
         <v>10735000</v>
       </c>
     </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>10503500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2215"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78053,6 +78053,41 @@
         <v>10503500</v>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>11025100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2216"/>
+  <dimension ref="A1:I2217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78088,6 +78088,41 @@
         <v>11025100</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>9845500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2217"/>
+  <dimension ref="A1:I2218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78123,6 +78123,41 @@
         <v>9845500</v>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>10537900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2218"/>
+  <dimension ref="A1:I2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78158,6 +78158,41 @@
         <v>10537900</v>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>10099900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8419.xlsx
+++ b/data/8419.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2219"/>
+  <dimension ref="A1:I2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78193,6 +78193,41 @@
         <v>10099900</v>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>8419</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>PANSAR</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>11940600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
